--- a/src/main/resources/excelImport/Excel_4_0_0_DK_withGrouping.xlsx
+++ b/src/main/resources/excelImport/Excel_4_0_0_DK_withGrouping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bna\IdeaProjects\automatedtest\src\main\resources\excelImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0301337-FF21-4F25-8CB0-E02B07AFB3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C82EF8-FDE1-4110-B782-81DCEBEE094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D352C53A-2955-4700-9DA7-87F07A8D31CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D352C53A-2955-4700-9DA7-87F07A8D31CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Forside" sheetId="1" r:id="rId1"/>
@@ -12198,9 +12198,6 @@
     <t>group2</t>
   </si>
   <si>
-    <t>Avent bægre til opbevaring af mad</t>
-  </si>
-  <si>
     <t>Centurion CMD 0,3 Herre - 2006</t>
   </si>
   <si>
@@ -12220,6 +12217,9 @@
   </si>
   <si>
     <t>Tag Heuer Aquaracer Grande Date Black Dial Chronograph Men's Watch</t>
+  </si>
+  <si>
+    <t>Tag Heuer Aquaracer Calibre 5 Automatic Mens Watch WAN2110.BA0822</t>
   </si>
 </sst>
 </file>
@@ -38744,7 +38744,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -38850,7 +38850,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>4032</v>
+        <v>4039</v>
       </c>
       <c r="D9" s="40">
         <v>25</v>
@@ -46466,7 +46466,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="D9" s="40">
         <v>13</v>
@@ -48999,7 +48999,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="D9" s="40">
         <v>0</v>
@@ -51425,7 +51425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89911B0F-AED4-4F2B-8E8D-E9F33C7C486E}">
   <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -51531,7 +51531,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="D9" s="40">
         <v>25</v>
@@ -54063,7 +54063,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="D9" s="40">
         <v>11</v>
@@ -54081,7 +54081,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="D10" s="40">
         <v>27</v>
@@ -56601,7 +56601,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="D9" s="40">
         <v>27</v>
@@ -59131,7 +59131,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="D9" s="40">
         <v>12</v>
